--- a/identifyCourse/Output.xlsx
+++ b/identifyCourse/Output.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="COURSE DETAILS" r:id="rId3" sheetId="1"/>
+    <sheet name="Course Details" r:id="rId3" sheetId="1"/>
     <sheet name="Language" r:id="rId4" sheetId="2"/>
     <sheet name="Level" r:id="rId5" sheetId="3"/>
   </sheets>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="101">
   <si>
     <t>COURSE NAME</t>
   </si>
@@ -34,13 +34,10 @@
     <t>Approx. 6 months to complete</t>
   </si>
   <si>
-    <t>Responsive Website Development and Design</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>Approx. 7 months to complete</t>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>Approx. 22 hours to complete</t>
   </si>
   <si>
     <t>LANGUAGE NAME</t>
@@ -52,67 +49,67 @@
     <t>English</t>
   </si>
   <si>
-    <t>1125</t>
+    <t>1170</t>
   </si>
   <si>
     <t>Spanish</t>
   </si>
   <si>
-    <t>460</t>
+    <t>471</t>
   </si>
   <si>
     <t>Russian</t>
   </si>
   <si>
-    <t>404</t>
+    <t>414</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>373</t>
+    <t>384</t>
   </si>
   <si>
     <t>Portuguese</t>
   </si>
   <si>
-    <t>281</t>
+    <t>289</t>
   </si>
   <si>
     <t>Arabic</t>
   </si>
   <si>
-    <t>148</t>
+    <t>149</t>
   </si>
   <si>
     <t>Chinese (China)</t>
   </si>
   <si>
-    <t>139</t>
+    <t>141</t>
   </si>
   <si>
     <t>Korean</t>
   </si>
   <si>
-    <t>106</t>
+    <t>107</t>
   </si>
   <si>
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>85</t>
+    <t>86</t>
   </si>
   <si>
     <t>German</t>
   </si>
   <si>
-    <t>82</t>
+    <t>84</t>
   </si>
   <si>
     <t>Portuguese (Brazil)</t>
   </si>
   <si>
-    <t>77</t>
+    <t>78</t>
   </si>
   <si>
     <t>Japanese</t>
@@ -124,21 +121,18 @@
     <t>Turkish</t>
   </si>
   <si>
-    <t>46</t>
+    <t>44</t>
   </si>
   <si>
     <t>Chinese (Traditional)</t>
   </si>
   <si>
-    <t>33</t>
+    <t>31</t>
   </si>
   <si>
     <t>Persian</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>Greek</t>
   </si>
   <si>
@@ -154,7 +148,13 @@
     <t>Hindi</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Italian</t>
@@ -163,72 +163,69 @@
     <t>13</t>
   </si>
   <si>
-    <t>Romanian</t>
-  </si>
-  <si>
     <t>Catalan</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
     <t>Thai</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Indonesian</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Polish</t>
+    <t>7</t>
   </si>
   <si>
     <t>Mongolian</t>
   </si>
   <si>
-    <t>7</t>
+    <t>Portuguese (Portugal)</t>
   </si>
   <si>
     <t>Serbian</t>
   </si>
   <si>
-    <t>Portuguese (Portugal)</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>Tamil</t>
   </si>
   <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Slovak</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Czech</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
     <t>Telugu</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
     <t>Estonian</t>
   </si>
   <si>
+    <t>Georgian</t>
+  </si>
+  <si>
     <t>Kazakh</t>
   </si>
   <si>
@@ -274,9 +274,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Georgian</t>
-  </si>
-  <si>
     <t>Marathi</t>
   </si>
   <si>
@@ -286,7 +283,7 @@
     <t>TOTAL COURSES</t>
   </si>
   <si>
-    <t>3677</t>
+    <t>3775</t>
   </si>
   <si>
     <t>LEVEL NAME</t>
@@ -298,7 +295,7 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>494</t>
+    <t>520</t>
   </si>
   <si>
     <t>Beginner</t>
@@ -310,16 +307,16 @@
     <t>Mixed</t>
   </si>
   <si>
-    <t>222</t>
+    <t>234</t>
   </si>
   <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>1257</t>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1298</t>
   </si>
 </sst>
 </file>
@@ -402,10 +399,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -427,167 +424,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
@@ -595,50 +592,50 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -646,52 +643,52 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -699,7 +696,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -707,95 +704,95 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
         <v>85</v>
@@ -811,7 +808,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
         <v>85</v>
@@ -819,10 +816,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
         <v>89</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -844,50 +841,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
